--- a/SQLiteDB/LocalIncTax_db.xlsx
+++ b/SQLiteDB/LocalIncTax_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michellechampagne/Desktop/BOOTCAMP/UPenn-Data---Project-3/SQLiteDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AD372C-F4B8-0848-96F6-F1697BAA9BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6476058-1391-BE48-9407-F225FAB9A0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45020" yWindow="2600" windowWidth="27640" windowHeight="16940" xr2:uid="{9436A292-AD54-484C-AF0A-9328904D881E}"/>
+    <workbookView xWindow="40880" yWindow="1860" windowWidth="27640" windowHeight="16940" xr2:uid="{9436A292-AD54-484C-AF0A-9328904D881E}"/>
   </bookViews>
   <sheets>
     <sheet name="SD Local Tax" sheetId="1" r:id="rId1"/>
@@ -4877,8 +4877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D69559B-28A4-6D49-B1AA-6A2B26C859FD}">
   <dimension ref="A1:E502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="E307" sqref="E307"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
